--- a/data/trans_dic/P55$pareja-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P55$pareja-Estudios-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -724,62 +725,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>43,45; 61,93</t>
+          <t>43,52; 61,62</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>30,35; 50,27</t>
+          <t>30,19; 49,52</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>33,08; 51,88</t>
+          <t>32,33; 51,4</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>25,63; 40,88</t>
+          <t>26,56; 41,49</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>7,13; 16,39</t>
+          <t>7,41; 15,87</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>10,91; 20,58</t>
+          <t>11,25; 20,27</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>9,75; 20,57</t>
+          <t>10,03; 20,73</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>8,19; 13,71</t>
+          <t>8,1; 13,59</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>20,2; 30,26</t>
+          <t>20,22; 30,13</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>18,83; 28,45</t>
+          <t>19,25; 28,55</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>18,16; 27,8</t>
+          <t>18,13; 27,88</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>14,07; 19,96</t>
+          <t>14,23; 20,46</t>
         </is>
       </c>
     </row>
@@ -864,62 +865,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>16,64; 62,1</t>
+          <t>15,14; 65,58</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>19,19; 64,6</t>
+          <t>19,34; 65,45</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>27,74; 65,22</t>
+          <t>26,87; 63,84</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>22,63; 46,0</t>
+          <t>23,69; 46,2</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 33,13</t>
+          <t>0,0; 29,19</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>4,61; 40,66</t>
+          <t>5,12; 42,38</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>16,18; 43,67</t>
+          <t>15,63; 45,44</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>11,49; 26,52</t>
+          <t>11,69; 26,38</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>9,81; 43,35</t>
+          <t>10,52; 42,61</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>17,46; 44,41</t>
+          <t>16,82; 44,49</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>22,76; 45,64</t>
+          <t>23,36; 47,68</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>18,35; 31,44</t>
+          <t>18,55; 31,79</t>
         </is>
       </c>
     </row>
@@ -1004,7 +1005,7 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 74,52</t>
+          <t>0,0; 71,89</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
@@ -1014,52 +1015,52 @@
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>21,88; 100,0</t>
+          <t>31,84; 100,0</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>33,78; 74,98</t>
+          <t>33,37; 74,53</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 48,64</t>
+          <t>0,0; 46,78</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 76,81</t>
+          <t>0,0; 100,0</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 60,45</t>
+          <t>0,0; 65,06</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>4,35; 34,05</t>
+          <t>4,46; 32,63</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>4,83; 46,55</t>
+          <t>4,53; 44,74</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 69,91</t>
+          <t>0,0; 68,06</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>12,59; 75,56</t>
+          <t>14,81; 77,08</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>23,43; 49,89</t>
+          <t>22,65; 49,6</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1145,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>39,28; 58,46</t>
+          <t>40,63; 56,61</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>30,9; 49,03</t>
+          <t>31,16; 49,13</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>36,68; 53,52</t>
+          <t>35,42; 52,5</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>29,71; 41,58</t>
+          <t>30,64; 41,83</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>7,31; 15,35</t>
+          <t>7,28; 15,62</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>11,46; 20,54</t>
+          <t>11,76; 20,76</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>12,79; 22,7</t>
+          <t>12,73; 22,81</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>9,71; 14,89</t>
+          <t>9,58; 14,81</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>19,94; 28,91</t>
+          <t>20,12; 28,97</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>19,71; 28,88</t>
+          <t>19,74; 28,49</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>20,94; 30,71</t>
+          <t>21,5; 30,55</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>17,29; 22,55</t>
+          <t>17,04; 22,6</t>
         </is>
       </c>
     </row>
@@ -1223,4 +1224,1003 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población a la que, al menos, le ayuda su pareja cuando tiene dificultades en la actividades instrumentales</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Primarios</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>57</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>42</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>42</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>54</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>56</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>77</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>68</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>110</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>53579</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>49653</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>38715</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>32696</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>22735</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>38003</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>30575</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>27581</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>76314</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>87656</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>69290</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>60277</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>44839; 63488</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>37477; 61469</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>30221; 48036</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>25941; 40516</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>15249; 32678</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>28229; 50850</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>20923; 43237</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>20884; 35018</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>62449; 93062</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>72175; 107057</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>54765; 84210</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>50570; 72705</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Secundarios</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>45</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>5516</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>7992</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>10764</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>14687</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>914</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>4056</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>14547</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>9796</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>6430</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>12047</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>25311</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>24483</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>2149; 9305</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>3872; 13101</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>6147; 14605</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>10193; 19876</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>0; 3940</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>1083; 8965</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>8135; 23646</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>6389; 14418</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>2913; 11796</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>6925; 18316</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>17499; 35719</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>18120; 31051</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Universitarios</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>2490</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>4068</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>8233</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>1274</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>1162</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>1034</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>2097</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>3763</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>1162</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>5101</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>10330</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>0; 6732</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>0; 1154</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>1629; 5118</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>5046; 11269</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>0; 5413</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>0; 4423</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>0; 4400</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>624; 4564</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>948; 9367</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>0; 4391</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>1760; 9157</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>6592; 14437</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>65</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>58</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>91</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>39</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>82</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>90</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>90</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>97</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>173</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>61584</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>57644</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>53547</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>55616</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>24923</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>43221</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>46155</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>39474</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>86507</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>100865</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>99702</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>95090</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>51428; 71659</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>45551; 71809</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>43026; 63764</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>47737; 65162</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>16804; 36065</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>32514; 57391</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>34048; 60975</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>31260; 48324</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>71914; 103582</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>83414; 120415</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>83602; 118789</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>82135; 108965</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>